--- a/Bausatz Teilebedarf.xlsx
+++ b/Bausatz Teilebedarf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\labathome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D726982-0576-4093-B719-75150B369920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAF9156-A3B0-4032-987F-688D9875761B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38990" yWindow="-7640" windowWidth="32400" windowHeight="16950" xr2:uid="{484272E1-E576-481B-8D60-089BF6DF1FA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{484272E1-E576-481B-8D60-089BF6DF1FA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Typ</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Fresnel-Linse</t>
   </si>
   <si>
-    <t>Spacer 5mm</t>
-  </si>
-  <si>
     <t>Spacer 10mm</t>
   </si>
   <si>
@@ -167,6 +164,12 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>11.04.2022</t>
+  </si>
+  <si>
+    <t>Spacer 6mm</t>
   </si>
 </sst>
 </file>
@@ -202,9 +205,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -227,9 +231,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78481C3D-F7E4-4493-8259-3F035B118DB4}" name="Tabelle1" displayName="Tabelle1" ref="A1:G35" totalsRowShown="0">
-  <autoFilter ref="A1:G35" xr:uid="{78481C3D-F7E4-4493-8259-3F035B118DB4}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78481C3D-F7E4-4493-8259-3F035B118DB4}" name="Tabelle1" displayName="Tabelle1" ref="A1:H35" totalsRowShown="0">
+  <autoFilter ref="A1:H35" xr:uid="{78481C3D-F7E4-4493-8259-3F035B118DB4}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4DD02D8A-2303-4DCE-9568-11BA2B207432}" name="Typ"/>
     <tableColumn id="2" xr3:uid="{59A8A7C0-7341-4135-AE88-0740D41796A9}" name="Menge"/>
     <tableColumn id="3" xr3:uid="{E26CFB8E-1970-4231-8631-AA32E072A3FF}" name="Kalkulatorische Kosten (20Stück)"/>
@@ -239,6 +243,7 @@
     </tableColumn>
     <tableColumn id="6" xr3:uid="{FFE73F35-69E3-443F-BD4C-92AB0DBF7FA6}" name="Bestellt"/>
     <tableColumn id="7" xr3:uid="{1C1D8E27-5045-432B-8185-A916A772A8EA}" name="Bestellung bezahlt"/>
+    <tableColumn id="8" xr3:uid="{4CC44E33-6423-40BF-94D9-0505CA89E856}" name="11.04.2022"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -544,7 +549,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C35"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,22 +567,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
       </c>
       <c r="L1">
         <v>30</v>
@@ -604,12 +612,15 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -628,7 +639,10 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -652,7 +666,10 @@
         <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -672,6 +689,9 @@
         <f>Tabelle1[[#This Row],[Menge]]*$L$1-Tabelle1[[#This Row],[Verfügbar]]</f>
         <v>-70</v>
       </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -690,6 +710,9 @@
         <f>Tabelle1[[#This Row],[Menge]]*$L$1-Tabelle1[[#This Row],[Verfügbar]]</f>
         <v>-70</v>
       </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -708,6 +731,9 @@
         <f>Tabelle1[[#This Row],[Menge]]*$L$1-Tabelle1[[#This Row],[Verfügbar]]</f>
         <v>-10</v>
       </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -726,6 +752,9 @@
         <f>Tabelle1[[#This Row],[Menge]]*$L$1-Tabelle1[[#This Row],[Verfügbar]]</f>
         <v>-70</v>
       </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -744,6 +773,9 @@
         <f>Tabelle1[[#This Row],[Menge]]*$L$1-Tabelle1[[#This Row],[Verfügbar]]</f>
         <v>-70</v>
       </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -766,12 +798,15 @@
         <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -786,10 +821,13 @@
         <f>Tabelle1[[#This Row],[Menge]]*$L$1-Tabelle1[[#This Row],[Verfügbar]]</f>
         <v>0</v>
       </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -803,6 +841,9 @@
       <c r="E12">
         <f>Tabelle1[[#This Row],[Menge]]*$L$1-Tabelle1[[#This Row],[Verfügbar]]</f>
         <v>-14</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -822,6 +863,9 @@
         <f>Tabelle1[[#This Row],[Menge]]*$L$1-Tabelle1[[#This Row],[Verfügbar]]</f>
         <v>-2</v>
       </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -840,6 +884,9 @@
         <f>Tabelle1[[#This Row],[Menge]]*$L$1-Tabelle1[[#This Row],[Verfügbar]]</f>
         <v>-15</v>
       </c>
+      <c r="H14">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -858,6 +905,9 @@
         <f>Tabelle1[[#This Row],[Menge]]*$L$1-Tabelle1[[#This Row],[Verfügbar]]</f>
         <v>-15</v>
       </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -877,10 +927,13 @@
         <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -901,10 +954,13 @@
         <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -922,10 +978,13 @@
         <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -946,10 +1005,13 @@
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="H19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -970,12 +1032,15 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -991,12 +1056,15 @@
         <v>150</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="H21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1012,12 +1080,15 @@
         <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="H22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -1033,12 +1104,15 @@
         <v>150</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="H23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1053,10 +1127,13 @@
         <f>Tabelle1[[#This Row],[Menge]]*$L$1-Tabelle1[[#This Row],[Verfügbar]]</f>
         <v>-20</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1071,10 +1148,13 @@
         <f>Tabelle1[[#This Row],[Menge]]*$L$1-Tabelle1[[#This Row],[Verfügbar]]</f>
         <v>-4</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1089,10 +1169,13 @@
         <f>Tabelle1[[#This Row],[Menge]]*$L$1-Tabelle1[[#This Row],[Verfügbar]]</f>
         <v>-10</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1111,12 +1194,15 @@
         <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="H27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1131,10 +1217,13 @@
         <f>Tabelle1[[#This Row],[Menge]]*$L$1-Tabelle1[[#This Row],[Verfügbar]]</f>
         <v>-40</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1149,10 +1238,13 @@
         <f>Tabelle1[[#This Row],[Menge]]*$L$1-Tabelle1[[#This Row],[Verfügbar]]</f>
         <v>-40</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1167,13 +1259,16 @@
         <f>Tabelle1[[#This Row],[Menge]]*$L$1-Tabelle1[[#This Row],[Verfügbar]]</f>
         <v>-40</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C31">
         <v>0.1</v>
@@ -1183,12 +1278,15 @@
       </c>
       <c r="E31">
         <f>Tabelle1[[#This Row],[Menge]]*$L$1-Tabelle1[[#This Row],[Verfügbar]]</f>
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="H31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1203,10 +1301,13 @@
         <f>Tabelle1[[#This Row],[Menge]]*$L$1-Tabelle1[[#This Row],[Verfügbar]]</f>
         <v>-40</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1221,13 +1322,16 @@
         <f>Tabelle1[[#This Row],[Menge]]*$L$1-Tabelle1[[#This Row],[Verfügbar]]</f>
         <v>-40</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34">
         <v>0.5</v>
@@ -1237,12 +1341,15 @@
       </c>
       <c r="E34">
         <f>Tabelle1[[#This Row],[Menge]]*$L$1-Tabelle1[[#This Row],[Verfügbar]]</f>
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1261,7 +1368,10 @@
         <v>100</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="H35">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
